--- a/biology/Microbiologie/Halicine/Halicine.xlsx
+++ b/biology/Microbiologie/Halicine/Halicine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'halicine (SU-3327) est un composé chimique qui agit comme un inhibiteur de l'enzyme c-Jun N-terminal kinase (en) (JNK)[2],[3],[4]. À l'origine, il a été recherché pour le traitement du diabète[5] mais le développement n'a pas été poursuivi pour cette application en raison des mauvais résultats des tests.
-Par la suite, l'halicine a été identifié par des chercheurs en intelligence artificielle de la MIT Jameel Clinic en 2019 à l'aide d'une approche d'apprentissage profond in silico, comme un antibiotique probable à large spectre[6],[7]. Cette probabilité a été vérifiée par des tests de culture cellulaire in vitro, suivis de tests in vivo sur des souris[8]. Ce composé a montré une activité contre les souches pharmacorésistantes de Clostridioides difficile, Acinetobacter baumannii et Mycobacterium tuberculosis, avec un mécanisme d'action inhabituel impliquant la séquestration du fer à l'intérieur des  bactéries, ce qui interfère avec leur capacité à réguler correctement l'équilibre du pH à travers la membrane cellulaire. Comme il s'agit d'un mode d'action différent de celui de la plupart des antibiotiques, l'halicine a conservé son activité contre les souches bactériennes résistantes à de nombreux médicaments couramment utilisés[9].
-Des études préliminaires suggèrent que l'halicine perturbe le gradient électrochimique à travers les membranes cellulaires des micro-organismes, entravant leur capacité à produire de l'ATP, nécessaire à leur survie. Face à ce type de mécanisme, il pourrait être difficile pour les bactéries de développer une résistance[7].
+L'halicine (SU-3327) est un composé chimique qui agit comme un inhibiteur de l'enzyme c-Jun N-terminal kinase (en) (JNK). À l'origine, il a été recherché pour le traitement du diabète mais le développement n'a pas été poursuivi pour cette application en raison des mauvais résultats des tests.
+Par la suite, l'halicine a été identifié par des chercheurs en intelligence artificielle de la MIT Jameel Clinic en 2019 à l'aide d'une approche d'apprentissage profond in silico, comme un antibiotique probable à large spectre,. Cette probabilité a été vérifiée par des tests de culture cellulaire in vitro, suivis de tests in vivo sur des souris. Ce composé a montré une activité contre les souches pharmacorésistantes de Clostridioides difficile, Acinetobacter baumannii et Mycobacterium tuberculosis, avec un mécanisme d'action inhabituel impliquant la séquestration du fer à l'intérieur des  bactéries, ce qui interfère avec leur capacité à réguler correctement l'équilibre du pH à travers la membrane cellulaire. Comme il s'agit d'un mode d'action différent de celui de la plupart des antibiotiques, l'halicine a conservé son activité contre les souches bactériennes résistantes à de nombreux médicaments couramment utilisés.
+Des études préliminaires suggèrent que l'halicine perturbe le gradient électrochimique à travers les membranes cellulaires des micro-organismes, entravant leur capacité à produire de l'ATP, nécessaire à leur survie. Face à ce type de mécanisme, il pourrait être difficile pour les bactéries de développer une résistance.
 </t>
         </is>
       </c>
